--- a/todoList.xlsx
+++ b/todoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UwAmp\www\Examen-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BAB835-1AA8-4B01-A24A-C13A6E8D7DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E9CBCC-7D7B-418B-B8AF-C2362BED08C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>Avancement</t>
   </si>
@@ -135,10 +135,76 @@
     <t>searchQuery()</t>
   </si>
   <si>
-    <t>traitement_query.php</t>
-  </si>
-  <si>
-    <t>searchQuery</t>
+    <t>modification habitation et delete</t>
+  </si>
+  <si>
+    <t>footer.html</t>
+  </si>
+  <si>
+    <t>getNomAdmin()</t>
+  </si>
+  <si>
+    <t>form ajout habitat</t>
+  </si>
+  <si>
+    <t>script.js</t>
+  </si>
+  <si>
+    <t>toggle bouton ajout</t>
+  </si>
+  <si>
+    <t>2 statistiques non dyn.</t>
+  </si>
+  <si>
+    <t>toggle bouton stat</t>
+  </si>
+  <si>
+    <t>traitement_ajout_habit.php</t>
+  </si>
+  <si>
+    <t>addHabitation</t>
+  </si>
+  <si>
+    <t>traitement_update.php</t>
+  </si>
+  <si>
+    <t>setHabitation</t>
+  </si>
+  <si>
+    <t>deleteHabitation</t>
+  </si>
+  <si>
+    <t>getIdType()</t>
+  </si>
+  <si>
+    <t>uploadImage()</t>
+  </si>
+  <si>
+    <t>isDisponible()</t>
+  </si>
+  <si>
+    <t>fontction.php</t>
+  </si>
+  <si>
+    <t>selectReservation()</t>
+  </si>
+  <si>
+    <t>traitement_logout.php</t>
+  </si>
+  <si>
+    <t>session_destroy()</t>
+  </si>
+  <si>
+    <t>traitement_search.php</t>
+  </si>
+  <si>
+    <t>searchMulti()</t>
+  </si>
+  <si>
+    <t>graph.php</t>
+  </si>
+  <si>
+    <t>graph</t>
   </si>
 </sst>
 </file>
@@ -528,16 +594,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" customWidth="1"/>
@@ -595,13 +661,13 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
         <v>100</v>
@@ -610,13 +676,13 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
         <v>100</v>
@@ -630,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
         <v>100</v>
@@ -644,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
         <v>100</v>
@@ -652,13 +718,13 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
@@ -666,13 +732,13 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
         <v>100</v>
@@ -686,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
         <v>100</v>
@@ -694,13 +760,13 @@
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
         <v>100</v>
@@ -708,13 +774,13 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
         <v>100</v>
@@ -722,27 +788,27 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
         <v>100</v>
@@ -753,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="7">
         <v>100</v>
@@ -767,10 +833,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
         <v>100</v>
@@ -784,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
         <v>100</v>
@@ -798,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
         <v>100</v>
@@ -812,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
         <v>100</v>
@@ -826,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7">
         <v>100</v>
@@ -839,53 +905,277 @@
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="D23" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
